--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223547.9658950707</v>
+        <v>220345.6168763213</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14416.35057262176</v>
+        <v>-14943.69578666805</v>
       </c>
       <c r="C6" t="n">
-        <v>-14416.35057262176</v>
+        <v>-14943.6957866681</v>
       </c>
       <c r="D6" t="n">
-        <v>-14416.35057262176</v>
+        <v>-14943.69578666816</v>
       </c>
       <c r="E6" t="n">
-        <v>-68639.91425727423</v>
+        <v>-68952.42173626495</v>
       </c>
       <c r="F6" t="n">
-        <v>64460.08574272582</v>
+        <v>64147.57826373505</v>
       </c>
       <c r="G6" t="n">
-        <v>64460.08574272582</v>
+        <v>64147.57826373505</v>
       </c>
       <c r="H6" t="n">
-        <v>64460.08574272585</v>
+        <v>64147.57826373505</v>
       </c>
       <c r="I6" t="n">
-        <v>64460.08574272582</v>
+        <v>64147.57826373508</v>
       </c>
       <c r="J6" t="n">
-        <v>64460.08574272582</v>
+        <v>64147.57826373508</v>
       </c>
       <c r="K6" t="n">
-        <v>64460.08574272582</v>
+        <v>64147.57826373508</v>
       </c>
       <c r="L6" t="n">
-        <v>64460.08574272582</v>
+        <v>64147.57826373505</v>
       </c>
       <c r="M6" t="n">
-        <v>64460.08574272582</v>
+        <v>64147.57826373508</v>
       </c>
       <c r="N6" t="n">
-        <v>64460.08574272582</v>
+        <v>64147.57826373508</v>
       </c>
       <c r="O6" t="n">
-        <v>64460.08574272582</v>
+        <v>64147.57826373505</v>
       </c>
       <c r="P6" t="n">
-        <v>64460.08574272582</v>
+        <v>64147.57826373505</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220345.6168763213</v>
+        <v>234071.9750137393</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14943.69578666805</v>
+        <v>-14943.69578666813</v>
       </c>
       <c r="C6" t="n">
-        <v>-14943.6957866681</v>
+        <v>-14943.69578666813</v>
       </c>
       <c r="D6" t="n">
-        <v>-14943.69578666816</v>
+        <v>-14943.69578666813</v>
       </c>
       <c r="E6" t="n">
-        <v>-68952.42173626495</v>
+        <v>-68952.42173626501</v>
       </c>
       <c r="F6" t="n">
-        <v>64147.57826373505</v>
+        <v>64147.57826373504</v>
       </c>
       <c r="G6" t="n">
-        <v>64147.57826373505</v>
+        <v>64147.57826373504</v>
       </c>
       <c r="H6" t="n">
-        <v>64147.57826373505</v>
+        <v>64147.57826373504</v>
       </c>
       <c r="I6" t="n">
-        <v>64147.57826373508</v>
+        <v>64147.57826373504</v>
       </c>
       <c r="J6" t="n">
-        <v>64147.57826373508</v>
+        <v>64147.57826373504</v>
       </c>
       <c r="K6" t="n">
-        <v>64147.57826373508</v>
+        <v>64147.57826373504</v>
       </c>
       <c r="L6" t="n">
-        <v>64147.57826373505</v>
+        <v>64147.57826373504</v>
       </c>
       <c r="M6" t="n">
-        <v>64147.57826373508</v>
+        <v>64147.57826373504</v>
       </c>
       <c r="N6" t="n">
-        <v>64147.57826373508</v>
+        <v>64147.57826373504</v>
       </c>
       <c r="O6" t="n">
-        <v>64147.57826373505</v>
+        <v>64147.57826373504</v>
       </c>
       <c r="P6" t="n">
-        <v>64147.57826373505</v>
+        <v>64147.57826373504</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234071.9750137393</v>
+        <v>150286.5732521145</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="D2" t="n">
         <v>471083.894762297</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14943.69578666813</v>
+        <v>-14987.83156534919</v>
       </c>
       <c r="C6" t="n">
-        <v>-14943.69578666813</v>
+        <v>-14987.83156534919</v>
       </c>
       <c r="D6" t="n">
-        <v>-14943.69578666813</v>
+        <v>-14987.83156534925</v>
       </c>
       <c r="E6" t="n">
-        <v>-68952.42173626501</v>
+        <v>-83762.43857537891</v>
       </c>
       <c r="F6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
       <c r="G6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
       <c r="H6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
       <c r="I6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
       <c r="J6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
       <c r="K6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
       <c r="L6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
       <c r="M6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
       <c r="N6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
       <c r="O6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
       <c r="P6" t="n">
-        <v>64147.57826373504</v>
+        <v>49337.56142462113</v>
       </c>
     </row>
   </sheetData>
